--- a/野火INF1838与各开发板引脚连接说明/野火INF1838与STM32开发板引脚连接说明.xlsx
+++ b/野火INF1838与各开发板引脚连接说明/野火INF1838与STM32开发板引脚连接说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="17025" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>INF1838模块与各开发板引脚连接说明</t>
   </si>
@@ -30,7 +30,13 @@
     <t>指南者开发板</t>
   </si>
   <si>
-    <t>挑战者开发板</t>
+    <t>拂晓开发板</t>
+  </si>
+  <si>
+    <t>骄阳开发板</t>
+  </si>
+  <si>
+    <t>挑战者开发板_V1</t>
   </si>
   <si>
     <t>挑战者开发板_V2</t>
@@ -81,10 +87,19 @@
     <t>PC0</t>
   </si>
   <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
     <t>PD7</t>
-  </si>
-  <si>
-    <t>PE3</t>
   </si>
   <si>
     <t>PA8</t>
@@ -101,19 +116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,23 +160,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,58 +199,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,14 +250,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -263,55 +303,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,7 +337,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,37 +427,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,139 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,17 +581,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,20 +620,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,237 +664,213 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -958,7 +942,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1237,25 +1221,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:M3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="9" width="16.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="4" max="11" width="16.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:13">
+    <row r="1" ht="22.5" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1267,12 +1251,14 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1296,31 +1282,37 @@
       <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="N2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1331,135 +1323,155 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
+    <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
+    <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="D3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
